--- a/Data/Individual Customers.xlsx
+++ b/Data/Individual Customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="100">
   <si>
     <t>TC</t>
   </si>
@@ -153,6 +153,165 @@
   </si>
   <si>
     <t>17704594</t>
+  </si>
+  <si>
+    <t>17704628</t>
+  </si>
+  <si>
+    <t>17704633</t>
+  </si>
+  <si>
+    <t>17704644</t>
+  </si>
+  <si>
+    <t>17704681</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>17704693</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>17704696</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>17704704</t>
+  </si>
+  <si>
+    <t>17704707</t>
+  </si>
+  <si>
+    <t>6012</t>
+  </si>
+  <si>
+    <t>17704713</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>118498</t>
+  </si>
+  <si>
+    <t>17704717</t>
+  </si>
+  <si>
+    <t>17704719</t>
+  </si>
+  <si>
+    <t>6020</t>
+  </si>
+  <si>
+    <t>118500</t>
+  </si>
+  <si>
+    <t>17704721</t>
+  </si>
+  <si>
+    <t>6004</t>
+  </si>
+  <si>
+    <t>17704722</t>
+  </si>
+  <si>
+    <t>17704723</t>
+  </si>
+  <si>
+    <t>17704724</t>
+  </si>
+  <si>
+    <t>17704725</t>
+  </si>
+  <si>
+    <t>17704726</t>
+  </si>
+  <si>
+    <t>17704727</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>17704728</t>
+  </si>
+  <si>
+    <t>17704729</t>
+  </si>
+  <si>
+    <t>17704730</t>
+  </si>
+  <si>
+    <t>17704735</t>
+  </si>
+  <si>
+    <t>17704736</t>
+  </si>
+  <si>
+    <t>17704737</t>
+  </si>
+  <si>
+    <t>17704738</t>
+  </si>
+  <si>
+    <t>17704739</t>
+  </si>
+  <si>
+    <t>17704740</t>
+  </si>
+  <si>
+    <t>17704741</t>
+  </si>
+  <si>
+    <t>17704742</t>
+  </si>
+  <si>
+    <t>17704743</t>
+  </si>
+  <si>
+    <t>17704745</t>
+  </si>
+  <si>
+    <t>17704746</t>
+  </si>
+  <si>
+    <t>17704747</t>
+  </si>
+  <si>
+    <t>17704748</t>
+  </si>
+  <si>
+    <t>17704749</t>
+  </si>
+  <si>
+    <t>17704750</t>
+  </si>
+  <si>
+    <t>17704751</t>
+  </si>
+  <si>
+    <t>17704752</t>
+  </si>
+  <si>
+    <t>17704753</t>
+  </si>
+  <si>
+    <t>17704754</t>
+  </si>
+  <si>
+    <t>17704755</t>
+  </si>
+  <si>
+    <t>17704756</t>
+  </si>
+  <si>
+    <t>17704757</t>
   </si>
 </sst>
 </file>
@@ -197,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -610,6 +769,479 @@
         <v>5</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/Individual Customers.xlsx
+++ b/Data/Individual Customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="141">
   <si>
     <t>TC</t>
   </si>
@@ -312,6 +312,129 @@
   </si>
   <si>
     <t>17704757</t>
+  </si>
+  <si>
+    <t>17704760</t>
+  </si>
+  <si>
+    <t>17704761</t>
+  </si>
+  <si>
+    <t>17704762</t>
+  </si>
+  <si>
+    <t>17704763</t>
+  </si>
+  <si>
+    <t>17704764</t>
+  </si>
+  <si>
+    <t>17704767</t>
+  </si>
+  <si>
+    <t>17704768</t>
+  </si>
+  <si>
+    <t>17704769</t>
+  </si>
+  <si>
+    <t>17704772</t>
+  </si>
+  <si>
+    <t>17704773</t>
+  </si>
+  <si>
+    <t>17704774</t>
+  </si>
+  <si>
+    <t>17704775</t>
+  </si>
+  <si>
+    <t>17704776</t>
+  </si>
+  <si>
+    <t>17704777</t>
+  </si>
+  <si>
+    <t>17704779</t>
+  </si>
+  <si>
+    <t>17704781</t>
+  </si>
+  <si>
+    <t>17704783</t>
+  </si>
+  <si>
+    <t>17704784</t>
+  </si>
+  <si>
+    <t>17704785</t>
+  </si>
+  <si>
+    <t>17704786</t>
+  </si>
+  <si>
+    <t>17704787</t>
+  </si>
+  <si>
+    <t>17704789</t>
+  </si>
+  <si>
+    <t>17704791</t>
+  </si>
+  <si>
+    <t>17704793</t>
+  </si>
+  <si>
+    <t>17704794</t>
+  </si>
+  <si>
+    <t>17704795</t>
+  </si>
+  <si>
+    <t>17704800</t>
+  </si>
+  <si>
+    <t>17704801</t>
+  </si>
+  <si>
+    <t>17704802</t>
+  </si>
+  <si>
+    <t>17704803</t>
+  </si>
+  <si>
+    <t>17704804</t>
+  </si>
+  <si>
+    <t>17704808</t>
+  </si>
+  <si>
+    <t>17704809</t>
+  </si>
+  <si>
+    <t>17704810</t>
+  </si>
+  <si>
+    <t>17704811</t>
+  </si>
+  <si>
+    <t>17704812</t>
+  </si>
+  <si>
+    <t>17704813</t>
+  </si>
+  <si>
+    <t>17704815</t>
+  </si>
+  <si>
+    <t>17704816</t>
+  </si>
+  <si>
+    <t>17704817</t>
+  </si>
+  <si>
+    <t>17704818</t>
   </si>
 </sst>
 </file>
@@ -356,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1242,6 +1365,457 @@
         <v>5</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B109" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>65</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>61</v>
+      </c>
+      <c r="B114" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>140</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/Individual Customers.xlsx
+++ b/Data/Individual Customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="151">
   <si>
     <t>TC</t>
   </si>
@@ -435,6 +435,36 @@
   </si>
   <si>
     <t>17704818</t>
+  </si>
+  <si>
+    <t>17706585</t>
+  </si>
+  <si>
+    <t>17706586</t>
+  </si>
+  <si>
+    <t>17706587</t>
+  </si>
+  <si>
+    <t>17706588</t>
+  </si>
+  <si>
+    <t>17706589</t>
+  </si>
+  <si>
+    <t>17706590</t>
+  </si>
+  <si>
+    <t>17706591</t>
+  </si>
+  <si>
+    <t>17706592</t>
+  </si>
+  <si>
+    <t>17706593</t>
+  </si>
+  <si>
+    <t>17706594</t>
   </si>
 </sst>
 </file>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1816,6 +1846,116 @@
         <v>5</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" t="s">
+        <v>142</v>
+      </c>
+      <c r="C123" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>61</v>
+      </c>
+      <c r="B124" t="s">
+        <v>143</v>
+      </c>
+      <c r="C124" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>146</v>
+      </c>
+      <c r="C127" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" t="s">
+        <v>148</v>
+      </c>
+      <c r="C129" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/Individual Customers.xlsx
+++ b/Data/Individual Customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="151">
   <si>
     <t>TC</t>
   </si>
@@ -509,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1956,6 +1956,15 @@
         <v>5</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>65</v>
+      </c>
+      <c r="B132"/>
+      <c r="C132" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/Individual Customers.xlsx
+++ b/Data/Individual Customers.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="275">
   <si>
     <t>TC</t>
   </si>
@@ -465,16 +472,387 @@
   </si>
   <si>
     <t>17706594</t>
+  </si>
+  <si>
+    <t>17713277</t>
+  </si>
+  <si>
+    <t>17713279</t>
+  </si>
+  <si>
+    <t>17866565</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>17866566</t>
+  </si>
+  <si>
+    <t>17866567</t>
+  </si>
+  <si>
+    <t>6063</t>
+  </si>
+  <si>
+    <t>17866568</t>
+  </si>
+  <si>
+    <t>17866569</t>
+  </si>
+  <si>
+    <t>17866570</t>
+  </si>
+  <si>
+    <t>17866571</t>
+  </si>
+  <si>
+    <t>17866572</t>
+  </si>
+  <si>
+    <t>17866573</t>
+  </si>
+  <si>
+    <t>17866574</t>
+  </si>
+  <si>
+    <t>17866575</t>
+  </si>
+  <si>
+    <t>17866576</t>
+  </si>
+  <si>
+    <t>17866577</t>
+  </si>
+  <si>
+    <t>17866578</t>
+  </si>
+  <si>
+    <t>17866579</t>
+  </si>
+  <si>
+    <t>17866580</t>
+  </si>
+  <si>
+    <t>17866581</t>
+  </si>
+  <si>
+    <t>17866582</t>
+  </si>
+  <si>
+    <t>17866583</t>
+  </si>
+  <si>
+    <t>17866584</t>
+  </si>
+  <si>
+    <t>17866585</t>
+  </si>
+  <si>
+    <t>17866586</t>
+  </si>
+  <si>
+    <t>17866587</t>
+  </si>
+  <si>
+    <t>17866588</t>
+  </si>
+  <si>
+    <t>17866589</t>
+  </si>
+  <si>
+    <t>17866590</t>
+  </si>
+  <si>
+    <t>17866591</t>
+  </si>
+  <si>
+    <t>17866592</t>
+  </si>
+  <si>
+    <t>17866593</t>
+  </si>
+  <si>
+    <t>17866594</t>
+  </si>
+  <si>
+    <t>17866595</t>
+  </si>
+  <si>
+    <t>17866596</t>
+  </si>
+  <si>
+    <t>17866597</t>
+  </si>
+  <si>
+    <t>17866598</t>
+  </si>
+  <si>
+    <t>17866599</t>
+  </si>
+  <si>
+    <t>17866600</t>
+  </si>
+  <si>
+    <t>17866601</t>
+  </si>
+  <si>
+    <t>17866602</t>
+  </si>
+  <si>
+    <t>17866603</t>
+  </si>
+  <si>
+    <t>17866604</t>
+  </si>
+  <si>
+    <t>17866605</t>
+  </si>
+  <si>
+    <t>17866606</t>
+  </si>
+  <si>
+    <t>17866607</t>
+  </si>
+  <si>
+    <t>17866608</t>
+  </si>
+  <si>
+    <t>17866609</t>
+  </si>
+  <si>
+    <t>17866610</t>
+  </si>
+  <si>
+    <t>17866611</t>
+  </si>
+  <si>
+    <t>17866612</t>
+  </si>
+  <si>
+    <t>17866613</t>
+  </si>
+  <si>
+    <t>17866614</t>
+  </si>
+  <si>
+    <t>17866615</t>
+  </si>
+  <si>
+    <t>17866616</t>
+  </si>
+  <si>
+    <t>17866617</t>
+  </si>
+  <si>
+    <t>17866618</t>
+  </si>
+  <si>
+    <t>17866619</t>
+  </si>
+  <si>
+    <t>17866620</t>
+  </si>
+  <si>
+    <t>17866621</t>
+  </si>
+  <si>
+    <t>17866622</t>
+  </si>
+  <si>
+    <t>17866623</t>
+  </si>
+  <si>
+    <t>17866624</t>
+  </si>
+  <si>
+    <t>17866625</t>
+  </si>
+  <si>
+    <t>17866626</t>
+  </si>
+  <si>
+    <t>17866627</t>
+  </si>
+  <si>
+    <t>17866628</t>
+  </si>
+  <si>
+    <t>17866629</t>
+  </si>
+  <si>
+    <t>17866630</t>
+  </si>
+  <si>
+    <t>17866631</t>
+  </si>
+  <si>
+    <t>17866632</t>
+  </si>
+  <si>
+    <t>17866633</t>
+  </si>
+  <si>
+    <t>17866634</t>
+  </si>
+  <si>
+    <t>17866635</t>
+  </si>
+  <si>
+    <t>17866636</t>
+  </si>
+  <si>
+    <t>17866637</t>
+  </si>
+  <si>
+    <t>17866638</t>
+  </si>
+  <si>
+    <t>17866639</t>
+  </si>
+  <si>
+    <t>17866640</t>
+  </si>
+  <si>
+    <t>17866641</t>
+  </si>
+  <si>
+    <t>17866642</t>
+  </si>
+  <si>
+    <t>17866643</t>
+  </si>
+  <si>
+    <t>17866644</t>
+  </si>
+  <si>
+    <t>17866645</t>
+  </si>
+  <si>
+    <t>17866646</t>
+  </si>
+  <si>
+    <t>17866647</t>
+  </si>
+  <si>
+    <t>17866648</t>
+  </si>
+  <si>
+    <t>17866649</t>
+  </si>
+  <si>
+    <t>17866650</t>
+  </si>
+  <si>
+    <t>17866651</t>
+  </si>
+  <si>
+    <t>17866652</t>
+  </si>
+  <si>
+    <t>17866653</t>
+  </si>
+  <si>
+    <t>17866654</t>
+  </si>
+  <si>
+    <t>17866655</t>
+  </si>
+  <si>
+    <t>17866656</t>
+  </si>
+  <si>
+    <t>17866657</t>
+  </si>
+  <si>
+    <t>17866658</t>
+  </si>
+  <si>
+    <t>17866659</t>
+  </si>
+  <si>
+    <t>17866660</t>
+  </si>
+  <si>
+    <t>17866661</t>
+  </si>
+  <si>
+    <t>17866662</t>
+  </si>
+  <si>
+    <t>17866663</t>
+  </si>
+  <si>
+    <t>17866664</t>
+  </si>
+  <si>
+    <t>17866665</t>
+  </si>
+  <si>
+    <t>17866666</t>
+  </si>
+  <si>
+    <t>17866667</t>
+  </si>
+  <si>
+    <t>17866668</t>
+  </si>
+  <si>
+    <t>17866669</t>
+  </si>
+  <si>
+    <t>17866670</t>
+  </si>
+  <si>
+    <t>17866671</t>
+  </si>
+  <si>
+    <t>17866672</t>
+  </si>
+  <si>
+    <t>17866673</t>
+  </si>
+  <si>
+    <t>17866674</t>
+  </si>
+  <si>
+    <t>17866675</t>
+  </si>
+  <si>
+    <t>17866676</t>
+  </si>
+  <si>
+    <t>17866677</t>
+  </si>
+  <si>
+    <t>17866678</t>
+  </si>
+  <si>
+    <t>17866679</t>
+  </si>
+  <si>
+    <t>17866680</t>
+  </si>
+  <si>
+    <t>17866681</t>
+  </si>
+  <si>
+    <t>17866682</t>
+  </si>
+  <si>
+    <t>17866683</t>
+  </si>
+  <si>
+    <t>17866684</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -486,7 +864,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -504,18 +882,294 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:C142"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -537,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -548,7 +1202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -559,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -570,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -581,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -592,7 +1246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -603,7 +1257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -614,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -625,7 +1279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -636,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -647,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -658,7 +1312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -669,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -680,7 +1334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -691,7 +1345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -702,7 +1356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -713,7 +1367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -724,7 +1378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -735,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -746,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -757,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -768,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -779,7 +1433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -790,7 +1444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -801,7 +1455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -812,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -823,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -834,7 +1488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -845,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -856,7 +1510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -867,7 +1521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -878,7 +1532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -889,7 +1543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -900,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -911,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -922,7 +1576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -933,7 +1587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -944,7 +1598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -955,7 +1609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -966,7 +1620,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -977,7 +1631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -988,7 +1642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -999,7 +1653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -1010,7 +1664,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1021,7 +1675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -1032,7 +1686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1043,7 +1697,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -1054,7 +1708,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -1065,7 +1719,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -1076,7 +1730,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -1087,7 +1741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -1098,7 +1752,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -1109,7 +1763,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +1774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -1131,7 +1785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -1142,7 +1796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1153,7 +1807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1164,7 +1818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1175,7 +1829,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1186,7 +1840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -1197,7 +1851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -1208,7 +1862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -1230,7 +1884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -1241,7 +1895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -1263,7 +1917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -1274,7 +1928,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -1285,7 +1939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -1296,7 +1950,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -1307,7 +1961,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>61</v>
       </c>
@@ -1318,7 +1972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -1329,7 +1983,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -1340,7 +1994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +2005,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -1362,7 +2016,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +2027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +2038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +2049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>65</v>
       </c>
@@ -1406,7 +2060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -1417,7 +2071,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>61</v>
       </c>
@@ -1428,7 +2082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -1439,7 +2093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -1450,7 +2104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>65</v>
       </c>
@@ -1461,7 +2115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -1472,7 +2126,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -1483,7 +2137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>65</v>
       </c>
@@ -1494,7 +2148,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -1505,7 +2159,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>61</v>
       </c>
@@ -1516,7 +2170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>65</v>
       </c>
@@ -1527,7 +2181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -1538,7 +2192,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -1549,7 +2203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -1560,7 +2214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -1571,7 +2225,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -1582,7 +2236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -1593,7 +2247,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -1604,7 +2258,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>22</v>
       </c>
@@ -1615,7 +2269,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -1626,7 +2280,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -1637,7 +2291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>65</v>
       </c>
@@ -1648,7 +2302,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>61</v>
       </c>
@@ -1659,7 +2313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -1670,7 +2324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -1681,7 +2335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>65</v>
       </c>
@@ -1692,7 +2346,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -1703,7 +2357,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>61</v>
       </c>
@@ -1714,7 +2368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -1725,7 +2379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -1736,7 +2390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>65</v>
       </c>
@@ -1747,7 +2401,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -1758,7 +2412,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>61</v>
       </c>
@@ -1769,7 +2423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -1780,7 +2434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -1791,7 +2445,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +2456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -1813,7 +2467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -1824,7 +2478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -1835,7 +2489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +2500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>65</v>
       </c>
@@ -1857,7 +2511,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -1868,7 +2522,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>61</v>
       </c>
@@ -1879,7 +2533,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -1890,7 +2544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>22</v>
       </c>
@@ -1901,7 +2555,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -1912,7 +2566,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>22</v>
       </c>
@@ -1923,7 +2577,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -1934,7 +2588,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -1945,7 +2599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -1956,16 +2610,1357 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>65</v>
       </c>
-      <c r="B132"/>
       <c r="C132" t="s">
         <v>67</v>
       </c>
     </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>65</v>
+      </c>
+      <c r="B133" t="s">
+        <v>151</v>
+      </c>
+      <c r="C133" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>65</v>
+      </c>
+      <c r="B134" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>65</v>
+      </c>
+      <c r="B135" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>65</v>
+      </c>
+      <c r="B136" t="s">
+        <v>155</v>
+      </c>
+      <c r="C136" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" t="s">
+        <v>156</v>
+      </c>
+      <c r="C137" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>65</v>
+      </c>
+      <c r="B138" t="s">
+        <v>158</v>
+      </c>
+      <c r="C138" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" t="s">
+        <v>159</v>
+      </c>
+      <c r="C139" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" t="s">
+        <v>160</v>
+      </c>
+      <c r="C140" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>65</v>
+      </c>
+      <c r="B141" t="s">
+        <v>161</v>
+      </c>
+      <c r="C141" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>22</v>
+      </c>
+      <c r="B142" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>65</v>
+      </c>
+      <c r="B143" t="s">
+        <v>163</v>
+      </c>
+      <c r="C143" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>65</v>
+      </c>
+      <c r="B144" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145" t="s">
+        <v>165</v>
+      </c>
+      <c r="C145" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>65</v>
+      </c>
+      <c r="B146" t="s">
+        <v>166</v>
+      </c>
+      <c r="C146" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" t="s">
+        <v>167</v>
+      </c>
+      <c r="C147" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s">
+        <v>168</v>
+      </c>
+      <c r="C148" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>65</v>
+      </c>
+      <c r="B149" t="s">
+        <v>169</v>
+      </c>
+      <c r="C149" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" t="s">
+        <v>170</v>
+      </c>
+      <c r="C150" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>61</v>
+      </c>
+      <c r="B151" t="s">
+        <v>171</v>
+      </c>
+      <c r="C151" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" t="s">
+        <v>172</v>
+      </c>
+      <c r="C152" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>65</v>
+      </c>
+      <c r="B153" t="s">
+        <v>173</v>
+      </c>
+      <c r="C153" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>65</v>
+      </c>
+      <c r="B154" t="s">
+        <v>174</v>
+      </c>
+      <c r="C154" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>65</v>
+      </c>
+      <c r="B155" t="s">
+        <v>175</v>
+      </c>
+      <c r="C155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156" t="s">
+        <v>176</v>
+      </c>
+      <c r="C156" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>61</v>
+      </c>
+      <c r="B157" t="s">
+        <v>177</v>
+      </c>
+      <c r="C157" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" t="s">
+        <v>178</v>
+      </c>
+      <c r="C158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>22</v>
+      </c>
+      <c r="B159" t="s">
+        <v>179</v>
+      </c>
+      <c r="C159" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>61</v>
+      </c>
+      <c r="B160" t="s">
+        <v>180</v>
+      </c>
+      <c r="C160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
+        <v>181</v>
+      </c>
+      <c r="C161" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>65</v>
+      </c>
+      <c r="B162" t="s">
+        <v>182</v>
+      </c>
+      <c r="C162" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>22</v>
+      </c>
+      <c r="B163" t="s">
+        <v>183</v>
+      </c>
+      <c r="C163" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>61</v>
+      </c>
+      <c r="B164" t="s">
+        <v>184</v>
+      </c>
+      <c r="C164" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>65</v>
+      </c>
+      <c r="B165" t="s">
+        <v>185</v>
+      </c>
+      <c r="C165" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>22</v>
+      </c>
+      <c r="B166" t="s">
+        <v>186</v>
+      </c>
+      <c r="C166" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>61</v>
+      </c>
+      <c r="B167" t="s">
+        <v>187</v>
+      </c>
+      <c r="C167" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" t="s">
+        <v>188</v>
+      </c>
+      <c r="C168" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>65</v>
+      </c>
+      <c r="B169" t="s">
+        <v>189</v>
+      </c>
+      <c r="C169" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>22</v>
+      </c>
+      <c r="B170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C170" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>61</v>
+      </c>
+      <c r="B171" t="s">
+        <v>191</v>
+      </c>
+      <c r="C171" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>65</v>
+      </c>
+      <c r="B172" t="s">
+        <v>192</v>
+      </c>
+      <c r="C172" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>22</v>
+      </c>
+      <c r="B173" t="s">
+        <v>193</v>
+      </c>
+      <c r="C173" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>61</v>
+      </c>
+      <c r="B174" t="s">
+        <v>194</v>
+      </c>
+      <c r="C174" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175" t="s">
+        <v>195</v>
+      </c>
+      <c r="C175" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B176" t="s">
+        <v>196</v>
+      </c>
+      <c r="C176" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" t="s">
+        <v>197</v>
+      </c>
+      <c r="C177" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>61</v>
+      </c>
+      <c r="B178" t="s">
+        <v>198</v>
+      </c>
+      <c r="C178" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179" t="s">
+        <v>199</v>
+      </c>
+      <c r="C179" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>65</v>
+      </c>
+      <c r="B180" t="s">
+        <v>200</v>
+      </c>
+      <c r="C180" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B181" t="s">
+        <v>201</v>
+      </c>
+      <c r="C181" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>61</v>
+      </c>
+      <c r="B182" t="s">
+        <v>202</v>
+      </c>
+      <c r="C182" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" t="s">
+        <v>203</v>
+      </c>
+      <c r="C183" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>22</v>
+      </c>
+      <c r="B184" t="s">
+        <v>204</v>
+      </c>
+      <c r="C184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>61</v>
+      </c>
+      <c r="B185" t="s">
+        <v>205</v>
+      </c>
+      <c r="C185" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" t="s">
+        <v>206</v>
+      </c>
+      <c r="C186" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>65</v>
+      </c>
+      <c r="B187" t="s">
+        <v>207</v>
+      </c>
+      <c r="C187" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>22</v>
+      </c>
+      <c r="B188" t="s">
+        <v>208</v>
+      </c>
+      <c r="C188" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>19</v>
+      </c>
+      <c r="B189" t="s">
+        <v>209</v>
+      </c>
+      <c r="C189" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>65</v>
+      </c>
+      <c r="B190" t="s">
+        <v>210</v>
+      </c>
+      <c r="C190" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>22</v>
+      </c>
+      <c r="B191" t="s">
+        <v>211</v>
+      </c>
+      <c r="C191" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>61</v>
+      </c>
+      <c r="B192" t="s">
+        <v>212</v>
+      </c>
+      <c r="C192" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" t="s">
+        <v>213</v>
+      </c>
+      <c r="C193" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>65</v>
+      </c>
+      <c r="B194" t="s">
+        <v>214</v>
+      </c>
+      <c r="C194" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" t="s">
+        <v>215</v>
+      </c>
+      <c r="C195" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>61</v>
+      </c>
+      <c r="B196" t="s">
+        <v>216</v>
+      </c>
+      <c r="C196" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" t="s">
+        <v>217</v>
+      </c>
+      <c r="C197" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>65</v>
+      </c>
+      <c r="B198" t="s">
+        <v>218</v>
+      </c>
+      <c r="C198" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>22</v>
+      </c>
+      <c r="B199" t="s">
+        <v>219</v>
+      </c>
+      <c r="C199" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" t="s">
+        <v>220</v>
+      </c>
+      <c r="C200" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>22</v>
+      </c>
+      <c r="B201" t="s">
+        <v>221</v>
+      </c>
+      <c r="C201" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>61</v>
+      </c>
+      <c r="B202" t="s">
+        <v>222</v>
+      </c>
+      <c r="C202" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" t="s">
+        <v>223</v>
+      </c>
+      <c r="C203" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>65</v>
+      </c>
+      <c r="B204" t="s">
+        <v>224</v>
+      </c>
+      <c r="C204" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>22</v>
+      </c>
+      <c r="B205" t="s">
+        <v>225</v>
+      </c>
+      <c r="C205" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" t="s">
+        <v>226</v>
+      </c>
+      <c r="C206" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>65</v>
+      </c>
+      <c r="B207" t="s">
+        <v>227</v>
+      </c>
+      <c r="C207" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>22</v>
+      </c>
+      <c r="B208" t="s">
+        <v>228</v>
+      </c>
+      <c r="C208" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209" t="s">
+        <v>229</v>
+      </c>
+      <c r="C209" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>65</v>
+      </c>
+      <c r="B210" t="s">
+        <v>230</v>
+      </c>
+      <c r="C210" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>22</v>
+      </c>
+      <c r="B211" t="s">
+        <v>231</v>
+      </c>
+      <c r="C211" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>61</v>
+      </c>
+      <c r="B212" t="s">
+        <v>232</v>
+      </c>
+      <c r="C212" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>19</v>
+      </c>
+      <c r="B213" t="s">
+        <v>233</v>
+      </c>
+      <c r="C213" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>22</v>
+      </c>
+      <c r="B214" t="s">
+        <v>234</v>
+      </c>
+      <c r="C214" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>61</v>
+      </c>
+      <c r="B215" t="s">
+        <v>235</v>
+      </c>
+      <c r="C215" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>19</v>
+      </c>
+      <c r="B216" t="s">
+        <v>236</v>
+      </c>
+      <c r="C216" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>65</v>
+      </c>
+      <c r="B217" t="s">
+        <v>237</v>
+      </c>
+      <c r="C217" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>22</v>
+      </c>
+      <c r="B218" t="s">
+        <v>238</v>
+      </c>
+      <c r="C218" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>61</v>
+      </c>
+      <c r="B219" t="s">
+        <v>239</v>
+      </c>
+      <c r="C219" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" t="s">
+        <v>240</v>
+      </c>
+      <c r="C220" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>65</v>
+      </c>
+      <c r="B221" t="s">
+        <v>241</v>
+      </c>
+      <c r="C221" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>22</v>
+      </c>
+      <c r="B222" t="s">
+        <v>242</v>
+      </c>
+      <c r="C222" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>61</v>
+      </c>
+      <c r="B223" t="s">
+        <v>243</v>
+      </c>
+      <c r="C223" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" t="s">
+        <v>244</v>
+      </c>
+      <c r="C224" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>65</v>
+      </c>
+      <c r="B225" t="s">
+        <v>245</v>
+      </c>
+      <c r="C225" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" t="s">
+        <v>246</v>
+      </c>
+      <c r="C226" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>61</v>
+      </c>
+      <c r="B227" t="s">
+        <v>247</v>
+      </c>
+      <c r="C227" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" t="s">
+        <v>248</v>
+      </c>
+      <c r="C228" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>65</v>
+      </c>
+      <c r="B229" t="s">
+        <v>249</v>
+      </c>
+      <c r="C229" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" t="s">
+        <v>250</v>
+      </c>
+      <c r="C230" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>61</v>
+      </c>
+      <c r="B231" t="s">
+        <v>251</v>
+      </c>
+      <c r="C231" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" t="s">
+        <v>252</v>
+      </c>
+      <c r="C232" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>65</v>
+      </c>
+      <c r="B233" t="s">
+        <v>253</v>
+      </c>
+      <c r="C233" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" t="s">
+        <v>254</v>
+      </c>
+      <c r="C234" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>61</v>
+      </c>
+      <c r="B235" t="s">
+        <v>255</v>
+      </c>
+      <c r="C235" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236" t="s">
+        <v>256</v>
+      </c>
+      <c r="C236" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>65</v>
+      </c>
+      <c r="B237" t="s">
+        <v>257</v>
+      </c>
+      <c r="C237" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>22</v>
+      </c>
+      <c r="B238" t="s">
+        <v>258</v>
+      </c>
+      <c r="C238" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>61</v>
+      </c>
+      <c r="B239" t="s">
+        <v>259</v>
+      </c>
+      <c r="C239" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240" t="s">
+        <v>260</v>
+      </c>
+      <c r="C240" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>65</v>
+      </c>
+      <c r="B241" t="s">
+        <v>261</v>
+      </c>
+      <c r="C241" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" t="s">
+        <v>262</v>
+      </c>
+      <c r="C242" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>61</v>
+      </c>
+      <c r="B243" t="s">
+        <v>263</v>
+      </c>
+      <c r="C243" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244" t="s">
+        <v>264</v>
+      </c>
+      <c r="C244" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>65</v>
+      </c>
+      <c r="B245" t="s">
+        <v>265</v>
+      </c>
+      <c r="C245" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>22</v>
+      </c>
+      <c r="B246" t="s">
+        <v>266</v>
+      </c>
+      <c r="C246" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>61</v>
+      </c>
+      <c r="B247" t="s">
+        <v>267</v>
+      </c>
+      <c r="C247" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>65</v>
+      </c>
+      <c r="B248" t="s">
+        <v>268</v>
+      </c>
+      <c r="C248" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" t="s">
+        <v>269</v>
+      </c>
+      <c r="C249" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>61</v>
+      </c>
+      <c r="B250" t="s">
+        <v>270</v>
+      </c>
+      <c r="C250" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>19</v>
+      </c>
+      <c r="B251" t="s">
+        <v>271</v>
+      </c>
+      <c r="C251" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>65</v>
+      </c>
+      <c r="B252" t="s">
+        <v>272</v>
+      </c>
+      <c r="C252" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>22</v>
+      </c>
+      <c r="B253" t="s">
+        <v>273</v>
+      </c>
+      <c r="C253" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>61</v>
+      </c>
+      <c r="B254" t="s">
+        <v>274</v>
+      </c>
+      <c r="C254" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Individual Customers.xlsx
+++ b/Data/Individual Customers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Data\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="289">
   <si>
     <t>TC</t>
   </si>
@@ -844,12 +844,55 @@
   </si>
   <si>
     <t>17866684</t>
+  </si>
+  <si>
+    <t>17866685</t>
+  </si>
+  <si>
+    <t>17866686</t>
+  </si>
+  <si>
+    <t>17866687</t>
+  </si>
+  <si>
+    <t>17866688</t>
+  </si>
+  <si>
+    <t>17866689</t>
+  </si>
+  <si>
+    <t>17866690</t>
+  </si>
+  <si>
+    <t>17866691</t>
+  </si>
+  <si>
+    <t>17866692</t>
+  </si>
+  <si>
+    <t>17866693</t>
+  </si>
+  <si>
+    <t>17866694</t>
+  </si>
+  <si>
+    <t>17866695</t>
+  </si>
+  <si>
+    <t>17866696</t>
+  </si>
+  <si>
+    <t>17866697</t>
+  </si>
+  <si>
+    <t>17866698</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1161,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C254"/>
+  <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
       <selection activeCell="A142" sqref="A142:C142"/>
@@ -3960,6 +4003,160 @@
         <v>157</v>
       </c>
     </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>65</v>
+      </c>
+      <c r="B255" t="s">
+        <v>275</v>
+      </c>
+      <c r="C255" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" t="s">
+        <v>276</v>
+      </c>
+      <c r="C256" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>61</v>
+      </c>
+      <c r="B257" t="s">
+        <v>277</v>
+      </c>
+      <c r="C257" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>19</v>
+      </c>
+      <c r="B258" t="s">
+        <v>278</v>
+      </c>
+      <c r="C258" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>65</v>
+      </c>
+      <c r="B259" t="s">
+        <v>279</v>
+      </c>
+      <c r="C259" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>22</v>
+      </c>
+      <c r="B260" t="s">
+        <v>280</v>
+      </c>
+      <c r="C260" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>61</v>
+      </c>
+      <c r="B261" t="s">
+        <v>281</v>
+      </c>
+      <c r="C261" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>65</v>
+      </c>
+      <c r="B262" t="s">
+        <v>282</v>
+      </c>
+      <c r="C262" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>22</v>
+      </c>
+      <c r="B263" t="s">
+        <v>283</v>
+      </c>
+      <c r="C263" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>61</v>
+      </c>
+      <c r="B264" t="s">
+        <v>284</v>
+      </c>
+      <c r="C264" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>19</v>
+      </c>
+      <c r="B265" t="s">
+        <v>285</v>
+      </c>
+      <c r="C265" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>65</v>
+      </c>
+      <c r="B266" t="s">
+        <v>286</v>
+      </c>
+      <c r="C266" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>22</v>
+      </c>
+      <c r="B267" t="s">
+        <v>287</v>
+      </c>
+      <c r="C267" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>61</v>
+      </c>
+      <c r="B268" t="s">
+        <v>288</v>
+      </c>
+      <c r="C268" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Individual Customers.xlsx
+++ b/Data/Individual Customers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="293">
   <si>
     <t>TC</t>
   </si>
@@ -886,6 +886,18 @@
   </si>
   <si>
     <t>17866698</t>
+  </si>
+  <si>
+    <t>17866724</t>
+  </si>
+  <si>
+    <t>17866725</t>
+  </si>
+  <si>
+    <t>17866726</t>
+  </si>
+  <si>
+    <t>17866727</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1216,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:C272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
       <selection activeCell="A142" sqref="A142:C142"/>
@@ -4157,6 +4169,50 @@
         <v>157</v>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>65</v>
+      </c>
+      <c r="B269" t="s">
+        <v>289</v>
+      </c>
+      <c r="C269" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>65</v>
+      </c>
+      <c r="B270" t="s">
+        <v>290</v>
+      </c>
+      <c r="C270" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>65</v>
+      </c>
+      <c r="B271" t="s">
+        <v>291</v>
+      </c>
+      <c r="C271" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>65</v>
+      </c>
+      <c r="B272" t="s">
+        <v>292</v>
+      </c>
+      <c r="C272" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Individual Customers.xlsx
+++ b/Data/Individual Customers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="311">
   <si>
     <t>TC</t>
   </si>
@@ -898,6 +898,60 @@
   </si>
   <si>
     <t>17866727</t>
+  </si>
+  <si>
+    <t>17866751</t>
+  </si>
+  <si>
+    <t>17866752</t>
+  </si>
+  <si>
+    <t>17866753</t>
+  </si>
+  <si>
+    <t>17866754</t>
+  </si>
+  <si>
+    <t>17866755</t>
+  </si>
+  <si>
+    <t>17866756</t>
+  </si>
+  <si>
+    <t>17866757</t>
+  </si>
+  <si>
+    <t>17866759</t>
+  </si>
+  <si>
+    <t>17866760</t>
+  </si>
+  <si>
+    <t>17866761</t>
+  </si>
+  <si>
+    <t>17866762</t>
+  </si>
+  <si>
+    <t>17866763</t>
+  </si>
+  <si>
+    <t>17866764</t>
+  </si>
+  <si>
+    <t>6005</t>
+  </si>
+  <si>
+    <t>17866766</t>
+  </si>
+  <si>
+    <t>17866767</t>
+  </si>
+  <si>
+    <t>17866768</t>
+  </si>
+  <si>
+    <t>17866770</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C272"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
       <selection activeCell="A142" sqref="A142:C142"/>
@@ -4213,6 +4267,193 @@
         <v>67</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>65</v>
+      </c>
+      <c r="B273" t="s">
+        <v>293</v>
+      </c>
+      <c r="C273" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>22</v>
+      </c>
+      <c r="B274" t="s">
+        <v>294</v>
+      </c>
+      <c r="C274" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>61</v>
+      </c>
+      <c r="B275" t="s">
+        <v>295</v>
+      </c>
+      <c r="C275" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>19</v>
+      </c>
+      <c r="B276" t="s">
+        <v>296</v>
+      </c>
+      <c r="C276" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>22</v>
+      </c>
+      <c r="B277" t="s">
+        <v>297</v>
+      </c>
+      <c r="C277" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>19</v>
+      </c>
+      <c r="B278" t="s">
+        <v>298</v>
+      </c>
+      <c r="C278" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>3</v>
+      </c>
+      <c r="B279" t="s">
+        <v>299</v>
+      </c>
+      <c r="C279" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>3</v>
+      </c>
+      <c r="B280" t="s">
+        <v>300</v>
+      </c>
+      <c r="C280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>65</v>
+      </c>
+      <c r="B281" t="s">
+        <v>301</v>
+      </c>
+      <c r="C281" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>22</v>
+      </c>
+      <c r="B282" t="s">
+        <v>302</v>
+      </c>
+      <c r="C282" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>61</v>
+      </c>
+      <c r="B283" t="s">
+        <v>303</v>
+      </c>
+      <c r="C283" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>19</v>
+      </c>
+      <c r="B284" t="s">
+        <v>304</v>
+      </c>
+      <c r="C284" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>22</v>
+      </c>
+      <c r="B285" t="s">
+        <v>305</v>
+      </c>
+      <c r="C285" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>3</v>
+      </c>
+      <c r="B286" t="s">
+        <v>307</v>
+      </c>
+      <c r="C286" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>19</v>
+      </c>
+      <c r="B287" t="s">
+        <v>308</v>
+      </c>
+      <c r="C287" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>3</v>
+      </c>
+      <c r="B288" t="s">
+        <v>309</v>
+      </c>
+      <c r="C288" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>3</v>
+      </c>
+      <c r="B289" t="s">
+        <v>310</v>
+      </c>
+      <c r="C289" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Individual Customers.xlsx
+++ b/Data/Individual Customers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="421">
   <si>
     <t>TC</t>
   </si>
@@ -952,6 +952,336 @@
   </si>
   <si>
     <t>17866770</t>
+  </si>
+  <si>
+    <t>17898936</t>
+  </si>
+  <si>
+    <t>Royal Profit</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>17898937</t>
+  </si>
+  <si>
+    <t>AFSNAPKSVGAC</t>
+  </si>
+  <si>
+    <t>17898938</t>
+  </si>
+  <si>
+    <t>Current Account</t>
+  </si>
+  <si>
+    <t>17898939</t>
+  </si>
+  <si>
+    <t>17898940</t>
+  </si>
+  <si>
+    <t>AlfalahKifayat</t>
+  </si>
+  <si>
+    <t>17898941</t>
+  </si>
+  <si>
+    <t>AsanDigCurAc</t>
+  </si>
+  <si>
+    <t>17898942</t>
+  </si>
+  <si>
+    <t>CA AKK</t>
+  </si>
+  <si>
+    <t>17898943</t>
+  </si>
+  <si>
+    <t>FreeLancerCurAc</t>
+  </si>
+  <si>
+    <t>17898944</t>
+  </si>
+  <si>
+    <t>CD BBA</t>
+  </si>
+  <si>
+    <t>17898948</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>17898949</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>17898950</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>17898951</t>
+  </si>
+  <si>
+    <t>17898952</t>
+  </si>
+  <si>
+    <t>17898953</t>
+  </si>
+  <si>
+    <t>17898954</t>
+  </si>
+  <si>
+    <t>17898955</t>
+  </si>
+  <si>
+    <t>17898956</t>
+  </si>
+  <si>
+    <t>17898967</t>
+  </si>
+  <si>
+    <t>17898968</t>
+  </si>
+  <si>
+    <t>17898969</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>17898970</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>17898971</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>17898972</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>17898973</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>17898975</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>17898992</t>
+  </si>
+  <si>
+    <t>17898994</t>
+  </si>
+  <si>
+    <t>17898995</t>
+  </si>
+  <si>
+    <t>17898996</t>
+  </si>
+  <si>
+    <t>17898997</t>
+  </si>
+  <si>
+    <t>17898998</t>
+  </si>
+  <si>
+    <t>17898999</t>
+  </si>
+  <si>
+    <t>17899000</t>
+  </si>
+  <si>
+    <t>17899005</t>
+  </si>
+  <si>
+    <t>17899006</t>
+  </si>
+  <si>
+    <t>17899007</t>
+  </si>
+  <si>
+    <t>17899008</t>
+  </si>
+  <si>
+    <t>17899009</t>
+  </si>
+  <si>
+    <t>17899010</t>
+  </si>
+  <si>
+    <t>17899013</t>
+  </si>
+  <si>
+    <t>17899014</t>
+  </si>
+  <si>
+    <t>17899015</t>
+  </si>
+  <si>
+    <t>17899016</t>
+  </si>
+  <si>
+    <t>17899017</t>
+  </si>
+  <si>
+    <t>17899018</t>
+  </si>
+  <si>
+    <t>17899019</t>
+  </si>
+  <si>
+    <t>17899020</t>
+  </si>
+  <si>
+    <t>17899025</t>
+  </si>
+  <si>
+    <t>17899026</t>
+  </si>
+  <si>
+    <t>17899027</t>
+  </si>
+  <si>
+    <t>17899028</t>
+  </si>
+  <si>
+    <t>17899029</t>
+  </si>
+  <si>
+    <t>17899031</t>
+  </si>
+  <si>
+    <t>17899032</t>
+  </si>
+  <si>
+    <t>17899033</t>
+  </si>
+  <si>
+    <t>17899034</t>
+  </si>
+  <si>
+    <t>17899035</t>
+  </si>
+  <si>
+    <t>17899036</t>
+  </si>
+  <si>
+    <t>17899037</t>
+  </si>
+  <si>
+    <t>17899038</t>
+  </si>
+  <si>
+    <t>17899039</t>
+  </si>
+  <si>
+    <t>17899041</t>
+  </si>
+  <si>
+    <t>17899043</t>
+  </si>
+  <si>
+    <t>17899044</t>
+  </si>
+  <si>
+    <t>17899045</t>
+  </si>
+  <si>
+    <t>17899046</t>
+  </si>
+  <si>
+    <t>17899047</t>
+  </si>
+  <si>
+    <t>17899049</t>
+  </si>
+  <si>
+    <t>17899050</t>
+  </si>
+  <si>
+    <t>17899051</t>
+  </si>
+  <si>
+    <t>17899053</t>
+  </si>
+  <si>
+    <t>17899054</t>
+  </si>
+  <si>
+    <t>17899055</t>
+  </si>
+  <si>
+    <t>17899056</t>
+  </si>
+  <si>
+    <t>17899057</t>
+  </si>
+  <si>
+    <t>17899058</t>
+  </si>
+  <si>
+    <t>17899059</t>
+  </si>
+  <si>
+    <t>17899060</t>
+  </si>
+  <si>
+    <t>17899061</t>
+  </si>
+  <si>
+    <t>17899062</t>
+  </si>
+  <si>
+    <t>17899063</t>
+  </si>
+  <si>
+    <t>17899064</t>
+  </si>
+  <si>
+    <t>17899065</t>
+  </si>
+  <si>
+    <t>17899067</t>
+  </si>
+  <si>
+    <t>17899068</t>
+  </si>
+  <si>
+    <t>17899069</t>
+  </si>
+  <si>
+    <t>17899070</t>
+  </si>
+  <si>
+    <t>17899071</t>
+  </si>
+  <si>
+    <t>17899072</t>
+  </si>
+  <si>
+    <t>17899073</t>
+  </si>
+  <si>
+    <t>17899074</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
       <selection activeCell="A142" sqref="A142:C142"/>
@@ -4454,6 +4784,1570 @@
         <v>5</v>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>65</v>
+      </c>
+      <c r="B290" t="s">
+        <v>311</v>
+      </c>
+      <c r="C290" t="s">
+        <v>67</v>
+      </c>
+      <c r="D290" t="s">
+        <v>312</v>
+      </c>
+      <c r="E290" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>22</v>
+      </c>
+      <c r="B291" t="s">
+        <v>314</v>
+      </c>
+      <c r="C291" t="s">
+        <v>64</v>
+      </c>
+      <c r="D291" t="s">
+        <v>315</v>
+      </c>
+      <c r="E291" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>61</v>
+      </c>
+      <c r="B292" t="s">
+        <v>316</v>
+      </c>
+      <c r="C292" t="s">
+        <v>60</v>
+      </c>
+      <c r="D292" t="s">
+        <v>317</v>
+      </c>
+      <c r="E292" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>19</v>
+      </c>
+      <c r="B293" t="s">
+        <v>318</v>
+      </c>
+      <c r="C293" t="s">
+        <v>60</v>
+      </c>
+      <c r="D293" t="s">
+        <v>317</v>
+      </c>
+      <c r="E293" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>22</v>
+      </c>
+      <c r="B294" t="s">
+        <v>319</v>
+      </c>
+      <c r="C294" t="s">
+        <v>306</v>
+      </c>
+      <c r="D294" t="s">
+        <v>320</v>
+      </c>
+      <c r="E294" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>3</v>
+      </c>
+      <c r="B295" t="s">
+        <v>321</v>
+      </c>
+      <c r="C295" t="s">
+        <v>74</v>
+      </c>
+      <c r="D295" t="s">
+        <v>322</v>
+      </c>
+      <c r="E295" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>19</v>
+      </c>
+      <c r="B296" t="s">
+        <v>323</v>
+      </c>
+      <c r="C296" t="s">
+        <v>53</v>
+      </c>
+      <c r="D296" t="s">
+        <v>324</v>
+      </c>
+      <c r="E296" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297" t="s">
+        <v>325</v>
+      </c>
+      <c r="C297" t="s">
+        <v>51</v>
+      </c>
+      <c r="D297" t="s">
+        <v>326</v>
+      </c>
+      <c r="E297" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>3</v>
+      </c>
+      <c r="B298" t="s">
+        <v>327</v>
+      </c>
+      <c r="C298" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" t="s">
+        <v>328</v>
+      </c>
+      <c r="E298" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>65</v>
+      </c>
+      <c r="B299" t="s">
+        <v>329</v>
+      </c>
+      <c r="C299" t="s">
+        <v>67</v>
+      </c>
+      <c r="D299" t="s">
+        <v>312</v>
+      </c>
+      <c r="E299" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>22</v>
+      </c>
+      <c r="B300" t="s">
+        <v>331</v>
+      </c>
+      <c r="C300" t="s">
+        <v>64</v>
+      </c>
+      <c r="D300" t="s">
+        <v>315</v>
+      </c>
+      <c r="E300" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>61</v>
+      </c>
+      <c r="B301" t="s">
+        <v>333</v>
+      </c>
+      <c r="C301" t="s">
+        <v>60</v>
+      </c>
+      <c r="D301" t="s">
+        <v>317</v>
+      </c>
+      <c r="E301" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>65</v>
+      </c>
+      <c r="B302" t="s">
+        <v>335</v>
+      </c>
+      <c r="C302" t="s">
+        <v>67</v>
+      </c>
+      <c r="D302" t="s">
+        <v>312</v>
+      </c>
+      <c r="E302" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>22</v>
+      </c>
+      <c r="B303" t="s">
+        <v>336</v>
+      </c>
+      <c r="C303" t="s">
+        <v>64</v>
+      </c>
+      <c r="D303" t="s">
+        <v>315</v>
+      </c>
+      <c r="E303" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>61</v>
+      </c>
+      <c r="B304" t="s">
+        <v>337</v>
+      </c>
+      <c r="C304" t="s">
+        <v>60</v>
+      </c>
+      <c r="D304" t="s">
+        <v>317</v>
+      </c>
+      <c r="E304" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>65</v>
+      </c>
+      <c r="B305" t="s">
+        <v>338</v>
+      </c>
+      <c r="C305" t="s">
+        <v>67</v>
+      </c>
+      <c r="D305" t="s">
+        <v>312</v>
+      </c>
+      <c r="E305" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>22</v>
+      </c>
+      <c r="B306" t="s">
+        <v>339</v>
+      </c>
+      <c r="C306" t="s">
+        <v>64</v>
+      </c>
+      <c r="D306" t="s">
+        <v>315</v>
+      </c>
+      <c r="E306" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>61</v>
+      </c>
+      <c r="B307" t="s">
+        <v>340</v>
+      </c>
+      <c r="C307" t="s">
+        <v>60</v>
+      </c>
+      <c r="D307" t="s">
+        <v>317</v>
+      </c>
+      <c r="E307" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>65</v>
+      </c>
+      <c r="B308" t="s">
+        <v>341</v>
+      </c>
+      <c r="C308" t="s">
+        <v>67</v>
+      </c>
+      <c r="D308" t="s">
+        <v>312</v>
+      </c>
+      <c r="E308" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>61</v>
+      </c>
+      <c r="B309" t="s">
+        <v>342</v>
+      </c>
+      <c r="C309" t="s">
+        <v>60</v>
+      </c>
+      <c r="D309" t="s">
+        <v>317</v>
+      </c>
+      <c r="E309" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>19</v>
+      </c>
+      <c r="B310" t="s">
+        <v>343</v>
+      </c>
+      <c r="C310" t="s">
+        <v>60</v>
+      </c>
+      <c r="D310" t="s">
+        <v>317</v>
+      </c>
+      <c r="E310" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>22</v>
+      </c>
+      <c r="B311" t="s">
+        <v>345</v>
+      </c>
+      <c r="C311" t="s">
+        <v>306</v>
+      </c>
+      <c r="D311" t="s">
+        <v>320</v>
+      </c>
+      <c r="E311" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>3</v>
+      </c>
+      <c r="B312" t="s">
+        <v>347</v>
+      </c>
+      <c r="C312" t="s">
+        <v>74</v>
+      </c>
+      <c r="D312" t="s">
+        <v>322</v>
+      </c>
+      <c r="E312" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>19</v>
+      </c>
+      <c r="B313" t="s">
+        <v>349</v>
+      </c>
+      <c r="C313" t="s">
+        <v>53</v>
+      </c>
+      <c r="D313" t="s">
+        <v>324</v>
+      </c>
+      <c r="E313" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>3</v>
+      </c>
+      <c r="B314" t="s">
+        <v>351</v>
+      </c>
+      <c r="C314" t="s">
+        <v>51</v>
+      </c>
+      <c r="D314" t="s">
+        <v>326</v>
+      </c>
+      <c r="E314" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>3</v>
+      </c>
+      <c r="B315" t="s">
+        <v>353</v>
+      </c>
+      <c r="C315" t="s">
+        <v>5</v>
+      </c>
+      <c r="D315" t="s">
+        <v>328</v>
+      </c>
+      <c r="E315" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>65</v>
+      </c>
+      <c r="B316" t="s">
+        <v>355</v>
+      </c>
+      <c r="C316" t="s">
+        <v>67</v>
+      </c>
+      <c r="D316" t="s">
+        <v>312</v>
+      </c>
+      <c r="E316" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>61</v>
+      </c>
+      <c r="B317" t="s">
+        <v>356</v>
+      </c>
+      <c r="C317" t="s">
+        <v>60</v>
+      </c>
+      <c r="D317" t="s">
+        <v>317</v>
+      </c>
+      <c r="E317" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>19</v>
+      </c>
+      <c r="B318" t="s">
+        <v>357</v>
+      </c>
+      <c r="C318" t="s">
+        <v>60</v>
+      </c>
+      <c r="D318" t="s">
+        <v>317</v>
+      </c>
+      <c r="E318" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>22</v>
+      </c>
+      <c r="B319" t="s">
+        <v>358</v>
+      </c>
+      <c r="C319" t="s">
+        <v>306</v>
+      </c>
+      <c r="D319" t="s">
+        <v>320</v>
+      </c>
+      <c r="E319" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>3</v>
+      </c>
+      <c r="B320" t="s">
+        <v>359</v>
+      </c>
+      <c r="C320" t="s">
+        <v>74</v>
+      </c>
+      <c r="D320" t="s">
+        <v>322</v>
+      </c>
+      <c r="E320" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>19</v>
+      </c>
+      <c r="B321" t="s">
+        <v>360</v>
+      </c>
+      <c r="C321" t="s">
+        <v>53</v>
+      </c>
+      <c r="D321" t="s">
+        <v>324</v>
+      </c>
+      <c r="E321" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>3</v>
+      </c>
+      <c r="B322" t="s">
+        <v>361</v>
+      </c>
+      <c r="C322" t="s">
+        <v>51</v>
+      </c>
+      <c r="D322" t="s">
+        <v>326</v>
+      </c>
+      <c r="E322" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>3</v>
+      </c>
+      <c r="B323" t="s">
+        <v>362</v>
+      </c>
+      <c r="C323" t="s">
+        <v>5</v>
+      </c>
+      <c r="D323" t="s">
+        <v>328</v>
+      </c>
+      <c r="E323" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>65</v>
+      </c>
+      <c r="B324" t="s">
+        <v>363</v>
+      </c>
+      <c r="C324" t="s">
+        <v>67</v>
+      </c>
+      <c r="D324" t="s">
+        <v>312</v>
+      </c>
+      <c r="E324" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>61</v>
+      </c>
+      <c r="B325" t="s">
+        <v>364</v>
+      </c>
+      <c r="C325" t="s">
+        <v>60</v>
+      </c>
+      <c r="D325" t="s">
+        <v>317</v>
+      </c>
+      <c r="E325" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>19</v>
+      </c>
+      <c r="B326" t="s">
+        <v>365</v>
+      </c>
+      <c r="C326" t="s">
+        <v>60</v>
+      </c>
+      <c r="D326" t="s">
+        <v>317</v>
+      </c>
+      <c r="E326" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>22</v>
+      </c>
+      <c r="B327" t="s">
+        <v>366</v>
+      </c>
+      <c r="C327" t="s">
+        <v>306</v>
+      </c>
+      <c r="D327" t="s">
+        <v>320</v>
+      </c>
+      <c r="E327" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>3</v>
+      </c>
+      <c r="B328" t="s">
+        <v>367</v>
+      </c>
+      <c r="C328" t="s">
+        <v>74</v>
+      </c>
+      <c r="D328" t="s">
+        <v>322</v>
+      </c>
+      <c r="E328" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+      <c r="B329" t="s">
+        <v>368</v>
+      </c>
+      <c r="C329" t="s">
+        <v>51</v>
+      </c>
+      <c r="D329" t="s">
+        <v>326</v>
+      </c>
+      <c r="E329" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>65</v>
+      </c>
+      <c r="B330" t="s">
+        <v>369</v>
+      </c>
+      <c r="C330" t="s">
+        <v>67</v>
+      </c>
+      <c r="D330" t="s">
+        <v>312</v>
+      </c>
+      <c r="E330" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>61</v>
+      </c>
+      <c r="B331" t="s">
+        <v>370</v>
+      </c>
+      <c r="C331" t="s">
+        <v>60</v>
+      </c>
+      <c r="D331" t="s">
+        <v>317</v>
+      </c>
+      <c r="E331" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>19</v>
+      </c>
+      <c r="B332" t="s">
+        <v>371</v>
+      </c>
+      <c r="C332" t="s">
+        <v>60</v>
+      </c>
+      <c r="D332" t="s">
+        <v>317</v>
+      </c>
+      <c r="E332" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>22</v>
+      </c>
+      <c r="B333" t="s">
+        <v>372</v>
+      </c>
+      <c r="C333" t="s">
+        <v>306</v>
+      </c>
+      <c r="D333" t="s">
+        <v>320</v>
+      </c>
+      <c r="E333" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>3</v>
+      </c>
+      <c r="B334" t="s">
+        <v>373</v>
+      </c>
+      <c r="C334" t="s">
+        <v>74</v>
+      </c>
+      <c r="D334" t="s">
+        <v>322</v>
+      </c>
+      <c r="E334" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>3</v>
+      </c>
+      <c r="B335" t="s">
+        <v>374</v>
+      </c>
+      <c r="C335" t="s">
+        <v>51</v>
+      </c>
+      <c r="D335" t="s">
+        <v>326</v>
+      </c>
+      <c r="E335" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>3</v>
+      </c>
+      <c r="B336" t="s">
+        <v>375</v>
+      </c>
+      <c r="C336" t="s">
+        <v>5</v>
+      </c>
+      <c r="D336" t="s">
+        <v>328</v>
+      </c>
+      <c r="E336" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>19</v>
+      </c>
+      <c r="B337" t="s">
+        <v>376</v>
+      </c>
+      <c r="C337" t="s">
+        <v>53</v>
+      </c>
+      <c r="D337" t="s">
+        <v>324</v>
+      </c>
+      <c r="E337" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>65</v>
+      </c>
+      <c r="B338" t="s">
+        <v>377</v>
+      </c>
+      <c r="C338" t="s">
+        <v>67</v>
+      </c>
+      <c r="D338" t="s">
+        <v>312</v>
+      </c>
+      <c r="E338" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>61</v>
+      </c>
+      <c r="B339" t="s">
+        <v>378</v>
+      </c>
+      <c r="C339" t="s">
+        <v>60</v>
+      </c>
+      <c r="D339" t="s">
+        <v>317</v>
+      </c>
+      <c r="E339" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>19</v>
+      </c>
+      <c r="B340" t="s">
+        <v>379</v>
+      </c>
+      <c r="C340" t="s">
+        <v>60</v>
+      </c>
+      <c r="D340" t="s">
+        <v>317</v>
+      </c>
+      <c r="E340" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>22</v>
+      </c>
+      <c r="B341" t="s">
+        <v>380</v>
+      </c>
+      <c r="C341" t="s">
+        <v>306</v>
+      </c>
+      <c r="D341" t="s">
+        <v>320</v>
+      </c>
+      <c r="E341" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>19</v>
+      </c>
+      <c r="B342" t="s">
+        <v>381</v>
+      </c>
+      <c r="C342" t="s">
+        <v>53</v>
+      </c>
+      <c r="D342" t="s">
+        <v>324</v>
+      </c>
+      <c r="E342" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>19</v>
+      </c>
+      <c r="B343" t="s">
+        <v>382</v>
+      </c>
+      <c r="C343" t="s">
+        <v>60</v>
+      </c>
+      <c r="D343" t="s">
+        <v>317</v>
+      </c>
+      <c r="E343" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>22</v>
+      </c>
+      <c r="B344" t="s">
+        <v>383</v>
+      </c>
+      <c r="C344" t="s">
+        <v>306</v>
+      </c>
+      <c r="D344" t="s">
+        <v>320</v>
+      </c>
+      <c r="E344" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>3</v>
+      </c>
+      <c r="B345" t="s">
+        <v>384</v>
+      </c>
+      <c r="C345" t="s">
+        <v>5</v>
+      </c>
+      <c r="D345" t="s">
+        <v>328</v>
+      </c>
+      <c r="E345" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>19</v>
+      </c>
+      <c r="B346" t="s">
+        <v>385</v>
+      </c>
+      <c r="C346" t="s">
+        <v>53</v>
+      </c>
+      <c r="D346" t="s">
+        <v>324</v>
+      </c>
+      <c r="E346" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>65</v>
+      </c>
+      <c r="B347" t="s">
+        <v>386</v>
+      </c>
+      <c r="C347" t="s">
+        <v>67</v>
+      </c>
+      <c r="D347" t="s">
+        <v>312</v>
+      </c>
+      <c r="E347" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>19</v>
+      </c>
+      <c r="B348" t="s">
+        <v>387</v>
+      </c>
+      <c r="C348" t="s">
+        <v>60</v>
+      </c>
+      <c r="D348" t="s">
+        <v>317</v>
+      </c>
+      <c r="E348" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>22</v>
+      </c>
+      <c r="B349" t="s">
+        <v>388</v>
+      </c>
+      <c r="C349" t="s">
+        <v>306</v>
+      </c>
+      <c r="D349" t="s">
+        <v>320</v>
+      </c>
+      <c r="E349" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>3</v>
+      </c>
+      <c r="B350" t="s">
+        <v>389</v>
+      </c>
+      <c r="C350" t="s">
+        <v>5</v>
+      </c>
+      <c r="D350" t="s">
+        <v>328</v>
+      </c>
+      <c r="E350" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>19</v>
+      </c>
+      <c r="B351" t="s">
+        <v>390</v>
+      </c>
+      <c r="C351" t="s">
+        <v>53</v>
+      </c>
+      <c r="D351" t="s">
+        <v>324</v>
+      </c>
+      <c r="E351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>19</v>
+      </c>
+      <c r="B352" t="s">
+        <v>391</v>
+      </c>
+      <c r="C352" t="s">
+        <v>60</v>
+      </c>
+      <c r="D352" t="s">
+        <v>317</v>
+      </c>
+      <c r="E352" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>22</v>
+      </c>
+      <c r="B353" t="s">
+        <v>392</v>
+      </c>
+      <c r="C353" t="s">
+        <v>306</v>
+      </c>
+      <c r="D353" t="s">
+        <v>320</v>
+      </c>
+      <c r="E353" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>3</v>
+      </c>
+      <c r="B354" t="s">
+        <v>393</v>
+      </c>
+      <c r="C354" t="s">
+        <v>5</v>
+      </c>
+      <c r="D354" t="s">
+        <v>328</v>
+      </c>
+      <c r="E354" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>19</v>
+      </c>
+      <c r="B355" t="s">
+        <v>394</v>
+      </c>
+      <c r="C355" t="s">
+        <v>53</v>
+      </c>
+      <c r="D355" t="s">
+        <v>324</v>
+      </c>
+      <c r="E355" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>65</v>
+      </c>
+      <c r="B356" t="s">
+        <v>395</v>
+      </c>
+      <c r="C356" t="s">
+        <v>67</v>
+      </c>
+      <c r="D356" t="s">
+        <v>312</v>
+      </c>
+      <c r="E356" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>61</v>
+      </c>
+      <c r="B357" t="s">
+        <v>396</v>
+      </c>
+      <c r="C357" t="s">
+        <v>60</v>
+      </c>
+      <c r="D357" t="s">
+        <v>317</v>
+      </c>
+      <c r="E357" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>19</v>
+      </c>
+      <c r="B358" t="s">
+        <v>397</v>
+      </c>
+      <c r="C358" t="s">
+        <v>60</v>
+      </c>
+      <c r="D358" t="s">
+        <v>317</v>
+      </c>
+      <c r="E358" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>3</v>
+      </c>
+      <c r="B359" t="s">
+        <v>398</v>
+      </c>
+      <c r="C359" t="s">
+        <v>5</v>
+      </c>
+      <c r="D359" t="s">
+        <v>328</v>
+      </c>
+      <c r="E359" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>19</v>
+      </c>
+      <c r="B360" t="s">
+        <v>399</v>
+      </c>
+      <c r="C360" t="s">
+        <v>53</v>
+      </c>
+      <c r="D360" t="s">
+        <v>324</v>
+      </c>
+      <c r="E360" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>61</v>
+      </c>
+      <c r="B361" t="s">
+        <v>400</v>
+      </c>
+      <c r="C361" t="s">
+        <v>60</v>
+      </c>
+      <c r="D361" t="s">
+        <v>317</v>
+      </c>
+      <c r="E361" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>19</v>
+      </c>
+      <c r="B362" t="s">
+        <v>401</v>
+      </c>
+      <c r="C362" t="s">
+        <v>60</v>
+      </c>
+      <c r="D362" t="s">
+        <v>317</v>
+      </c>
+      <c r="E362" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>22</v>
+      </c>
+      <c r="B363" t="s">
+        <v>402</v>
+      </c>
+      <c r="C363" t="s">
+        <v>306</v>
+      </c>
+      <c r="D363" t="s">
+        <v>320</v>
+      </c>
+      <c r="E363" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>3</v>
+      </c>
+      <c r="B364" t="s">
+        <v>403</v>
+      </c>
+      <c r="C364" t="s">
+        <v>5</v>
+      </c>
+      <c r="D364" t="s">
+        <v>328</v>
+      </c>
+      <c r="E364" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>19</v>
+      </c>
+      <c r="B365" t="s">
+        <v>404</v>
+      </c>
+      <c r="C365" t="s">
+        <v>53</v>
+      </c>
+      <c r="D365" t="s">
+        <v>324</v>
+      </c>
+      <c r="E365" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>65</v>
+      </c>
+      <c r="B366" t="s">
+        <v>405</v>
+      </c>
+      <c r="C366" t="s">
+        <v>67</v>
+      </c>
+      <c r="D366" t="s">
+        <v>312</v>
+      </c>
+      <c r="E366" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>61</v>
+      </c>
+      <c r="B367" t="s">
+        <v>406</v>
+      </c>
+      <c r="C367" t="s">
+        <v>60</v>
+      </c>
+      <c r="D367" t="s">
+        <v>317</v>
+      </c>
+      <c r="E367" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>19</v>
+      </c>
+      <c r="B368" t="s">
+        <v>407</v>
+      </c>
+      <c r="C368" t="s">
+        <v>60</v>
+      </c>
+      <c r="D368" t="s">
+        <v>317</v>
+      </c>
+      <c r="E368" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>22</v>
+      </c>
+      <c r="B369" t="s">
+        <v>408</v>
+      </c>
+      <c r="C369" t="s">
+        <v>306</v>
+      </c>
+      <c r="D369" t="s">
+        <v>320</v>
+      </c>
+      <c r="E369" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>3</v>
+      </c>
+      <c r="B370" t="s">
+        <v>409</v>
+      </c>
+      <c r="C370" t="s">
+        <v>5</v>
+      </c>
+      <c r="D370" t="s">
+        <v>328</v>
+      </c>
+      <c r="E370" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>19</v>
+      </c>
+      <c r="B371" t="s">
+        <v>410</v>
+      </c>
+      <c r="C371" t="s">
+        <v>53</v>
+      </c>
+      <c r="D371" t="s">
+        <v>324</v>
+      </c>
+      <c r="E371" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>61</v>
+      </c>
+      <c r="B372" t="s">
+        <v>411</v>
+      </c>
+      <c r="C372" t="s">
+        <v>60</v>
+      </c>
+      <c r="D372" t="s">
+        <v>317</v>
+      </c>
+      <c r="E372" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>19</v>
+      </c>
+      <c r="B373" t="s">
+        <v>412</v>
+      </c>
+      <c r="C373" t="s">
+        <v>60</v>
+      </c>
+      <c r="D373" t="s">
+        <v>317</v>
+      </c>
+      <c r="E373" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>22</v>
+      </c>
+      <c r="B374" t="s">
+        <v>413</v>
+      </c>
+      <c r="C374" t="s">
+        <v>306</v>
+      </c>
+      <c r="D374" t="s">
+        <v>320</v>
+      </c>
+      <c r="E374" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>3</v>
+      </c>
+      <c r="B375" t="s">
+        <v>414</v>
+      </c>
+      <c r="C375" t="s">
+        <v>5</v>
+      </c>
+      <c r="D375" t="s">
+        <v>328</v>
+      </c>
+      <c r="E375" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>19</v>
+      </c>
+      <c r="B376" t="s">
+        <v>415</v>
+      </c>
+      <c r="C376" t="s">
+        <v>53</v>
+      </c>
+      <c r="D376" t="s">
+        <v>324</v>
+      </c>
+      <c r="E376" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>65</v>
+      </c>
+      <c r="B377" t="s">
+        <v>416</v>
+      </c>
+      <c r="C377" t="s">
+        <v>67</v>
+      </c>
+      <c r="D377" t="s">
+        <v>312</v>
+      </c>
+      <c r="E377" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>61</v>
+      </c>
+      <c r="B378" t="s">
+        <v>417</v>
+      </c>
+      <c r="C378" t="s">
+        <v>60</v>
+      </c>
+      <c r="D378" t="s">
+        <v>317</v>
+      </c>
+      <c r="E378" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>19</v>
+      </c>
+      <c r="B379" t="s">
+        <v>418</v>
+      </c>
+      <c r="C379" t="s">
+        <v>60</v>
+      </c>
+      <c r="D379" t="s">
+        <v>317</v>
+      </c>
+      <c r="E379" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>22</v>
+      </c>
+      <c r="B380" t="s">
+        <v>419</v>
+      </c>
+      <c r="C380" t="s">
+        <v>306</v>
+      </c>
+      <c r="D380" t="s">
+        <v>320</v>
+      </c>
+      <c r="E380" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>3</v>
+      </c>
+      <c r="B381" t="s">
+        <v>420</v>
+      </c>
+      <c r="C381" t="s">
+        <v>5</v>
+      </c>
+      <c r="D381" t="s">
+        <v>328</v>
+      </c>
+      <c r="E381" t="s">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
